--- a/Requerimientos DAMO.xlsx
+++ b/Requerimientos DAMO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apalm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DF91169-5DAE-45CB-9506-92EC315F39D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{714D952F-F10A-4B58-8DC8-E309396DA9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B68E95D5-829B-4FE7-9C63-0F2E7BCECDB1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sergio Ayerdis</t>
   </si>
@@ -57,19 +57,22 @@
     <t>¿Olvidó su contraseña?</t>
   </si>
   <si>
-    <t>Registrar factura</t>
-  </si>
-  <si>
-    <t>Editar factura</t>
-  </si>
-  <si>
-    <t>Eliminar factura</t>
-  </si>
-  <si>
     <t>Requerimientos</t>
   </si>
   <si>
     <t>Ayudaron con las vistas, con respecto a la base de datos no trabajaron y al final les dejamos que hicieran todo el diseño de la app pero no nos lo entregaron, por ende se repartió todo entre Asbel y Sergio-</t>
+  </si>
+  <si>
+    <t>Registrar servicio</t>
+  </si>
+  <si>
+    <t>Ver servicio</t>
+  </si>
+  <si>
+    <t>Editar servicio</t>
+  </si>
+  <si>
+    <t>Eliminar servicio</t>
   </si>
 </sst>
 </file>
@@ -568,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2359B311-565E-4203-8415-FFDAAEABA038}">
-  <dimension ref="C3:H11"/>
+  <dimension ref="C3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +590,7 @@
   <sheetData>
     <row r="3" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -624,7 +627,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -648,7 +651,7 @@
     </row>
     <row r="9" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
@@ -657,7 +660,7 @@
     </row>
     <row r="10" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
@@ -666,12 +669,19 @@
     </row>
     <row r="11" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
